--- a/Intelligibility/mergedIntelligibility_difflib.xlsx
+++ b/Intelligibility/mergedIntelligibility_difflib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE26"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2918,99 +2918,6 @@
         <v>0.1147959183673469</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr"/>
-      <c r="B26" t="n">
-        <v>0.1125356125356125</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.1054545454545454</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.1254889178617992</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.1304195804195804</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.1294035577258458</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.129251700680272</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.119047619047619</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.1165865384615384</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.136574074074074</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.1146873843877173</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.1041666666666666</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.0962962962962963</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.1089655172413793</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.122875816993464</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.1327953044754218</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.0714995034756703</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.1103498016588532</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.0729898516783762</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.1023017902813299</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.0908474576271186</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.07985958753839401</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0.0932914046121593</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.1165158371040724</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0.0980861244019138</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0.08522727272727269</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.0922813036020583</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0.0770119368502117</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0.06734496124031</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0.08963317384370011</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0.078525641025641</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
